--- a/small-frame/jxls-demo/output/group-merge-output.xlsx
+++ b/small-frame/jxls-demo/output/group-merge-output.xlsx
@@ -1117,9 +1117,6 @@
       <c r="D5" s="0"/>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
